--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efnb2-Ephb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efnb2-Ephb3.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>41.519606</v>
+        <v>29.41996</v>
       </c>
       <c r="H2">
-        <v>124.558818</v>
+        <v>88.25988000000001</v>
       </c>
       <c r="I2">
-        <v>0.7305114279806179</v>
+        <v>0.6207199949605289</v>
       </c>
       <c r="J2">
-        <v>0.7630546295388221</v>
+        <v>0.66829493802317</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +558,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.04936133333333333</v>
+        <v>0.1030276666666667</v>
       </c>
       <c r="N2">
-        <v>0.148084</v>
+        <v>0.309083</v>
       </c>
       <c r="O2">
-        <v>0.002475496704993591</v>
+        <v>0.005678588141197309</v>
       </c>
       <c r="P2">
-        <v>0.002635547730441438</v>
+        <v>0.005869434938871914</v>
       </c>
       <c r="Q2">
-        <v>2.049463111634667</v>
+        <v>3.031069832226667</v>
       </c>
       <c r="R2">
-        <v>18.445168004712</v>
+        <v>27.27962849004</v>
       </c>
       <c r="S2">
-        <v>0.001808378632926182</v>
+        <v>0.003524813202386913</v>
       </c>
       <c r="T2">
-        <v>0.002011066897083874</v>
+        <v>0.003922513658704435</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>41.519606</v>
+        <v>29.41996</v>
       </c>
       <c r="H3">
-        <v>124.558818</v>
+        <v>88.25988000000001</v>
       </c>
       <c r="I3">
-        <v>0.7305114279806179</v>
+        <v>0.6207199949605289</v>
       </c>
       <c r="J3">
-        <v>0.7630546295388221</v>
+        <v>0.66829493802317</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,25 +623,25 @@
         <v>16.251742</v>
       </c>
       <c r="N3">
-        <v>48.755226</v>
+        <v>48.75522599999999</v>
       </c>
       <c r="O3">
-        <v>0.8150333683194528</v>
+        <v>0.8957491941808339</v>
       </c>
       <c r="P3">
-        <v>0.8677286218055926</v>
+        <v>0.9258536604633588</v>
       </c>
       <c r="Q3">
-        <v>674.765924653652</v>
+        <v>478.1255995703199</v>
       </c>
       <c r="R3">
-        <v>6072.893321882868</v>
+        <v>4303.130396132879</v>
       </c>
       <c r="S3">
-        <v>0.5953911897428964</v>
+        <v>0.556009435297825</v>
       </c>
       <c r="T3">
-        <v>0.6621243420520991</v>
+        <v>0.6187433146378855</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>41.519606</v>
+        <v>29.41996</v>
       </c>
       <c r="H4">
-        <v>124.558818</v>
+        <v>88.25988000000001</v>
       </c>
       <c r="I4">
-        <v>0.7305114279806179</v>
+        <v>0.6207199949605289</v>
       </c>
       <c r="J4">
-        <v>0.7630546295388221</v>
+        <v>0.66829493802317</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.006136</v>
+        <v>1.7697965</v>
       </c>
       <c r="N4">
-        <v>0.018408</v>
+        <v>3.539593</v>
       </c>
       <c r="O4">
-        <v>0.0003077236119062291</v>
+        <v>0.09754608390528599</v>
       </c>
       <c r="P4">
-        <v>0.0003276192068148212</v>
+        <v>0.06721628437535049</v>
       </c>
       <c r="Q4">
-        <v>0.254764302416</v>
+        <v>52.06734223814001</v>
       </c>
       <c r="R4">
-        <v>2.292878721744</v>
+        <v>312.40405342884</v>
       </c>
       <c r="S4">
-        <v>0.0002247956151569729</v>
+        <v>0.06054880471010845</v>
       </c>
       <c r="T4">
-        <v>0.0002499913524858862</v>
+        <v>0.04492030260077262</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>41.519606</v>
+        <v>29.41996</v>
       </c>
       <c r="H5">
-        <v>124.558818</v>
+        <v>88.25988000000001</v>
       </c>
       <c r="I5">
-        <v>0.7305114279806179</v>
+        <v>0.6207199949605289</v>
       </c>
       <c r="J5">
-        <v>0.7630546295388221</v>
+        <v>0.66829493802317</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>3.632732</v>
+        <v>0.01861733333333333</v>
       </c>
       <c r="N5">
-        <v>7.265464</v>
+        <v>0.055852</v>
       </c>
       <c r="O5">
-        <v>0.1821834113636472</v>
+        <v>0.001026133772682911</v>
       </c>
       <c r="P5">
-        <v>0.1293082112571511</v>
+        <v>0.001060620222418814</v>
       </c>
       <c r="Q5">
-        <v>150.829601343592</v>
+        <v>0.5477212019733334</v>
       </c>
       <c r="R5">
-        <v>904.9776080615519</v>
+        <v>4.929490817760001</v>
       </c>
       <c r="S5">
-        <v>0.1330870639896382</v>
+        <v>0.0006369417502085649</v>
       </c>
       <c r="T5">
-        <v>0.09866922923715321</v>
+        <v>0.0007088071258075018</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>21.551639</v>
       </c>
       <c r="I6">
-        <v>0.1263958572665066</v>
+        <v>0.1515698101047853</v>
       </c>
       <c r="J6">
-        <v>0.1320266053993819</v>
+        <v>0.1631868437822795</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,28 +806,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.04936133333333333</v>
+        <v>0.1030276666666667</v>
       </c>
       <c r="N6">
-        <v>0.148084</v>
+        <v>0.309083</v>
       </c>
       <c r="O6">
-        <v>0.002475496704993591</v>
+        <v>0.005678588141197309</v>
       </c>
       <c r="P6">
-        <v>0.002635547730441438</v>
+        <v>0.005869434938871914</v>
       </c>
       <c r="Q6">
-        <v>0.3546058788528889</v>
+        <v>0.7401383596707778</v>
       </c>
       <c r="R6">
-        <v>3.191452909676</v>
+        <v>6.661245237037001</v>
       </c>
       <c r="S6">
-        <v>0.0003128925281880774</v>
+        <v>0.0008607025262245616</v>
       </c>
       <c r="T6">
-        <v>0.0003479624202182283</v>
+        <v>0.0009578145624599442</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>21.551639</v>
       </c>
       <c r="I7">
-        <v>0.1263958572665066</v>
+        <v>0.1515698101047853</v>
       </c>
       <c r="J7">
-        <v>0.1320266053993819</v>
+        <v>0.1631868437822795</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,13 +871,13 @@
         <v>16.251742</v>
       </c>
       <c r="N7">
-        <v>48.755226</v>
+        <v>48.75522599999999</v>
       </c>
       <c r="O7">
-        <v>0.8150333683194528</v>
+        <v>0.8957491941808339</v>
       </c>
       <c r="P7">
-        <v>0.8677286218055926</v>
+        <v>0.9258536604633588</v>
       </c>
       <c r="Q7">
         <v>116.7505589017127</v>
@@ -886,10 +886,10 @@
         <v>1050.755030115414</v>
       </c>
       <c r="S7">
-        <v>0.1030168412895457</v>
+        <v>0.1357685352635034</v>
       </c>
       <c r="T7">
-        <v>0.1145632643448765</v>
+        <v>0.1510871366552858</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +918,40 @@
         <v>21.551639</v>
       </c>
       <c r="I8">
-        <v>0.1263958572665066</v>
+        <v>0.1515698101047853</v>
       </c>
       <c r="J8">
-        <v>0.1320266053993819</v>
+        <v>0.1631868437822795</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.006136</v>
+        <v>1.7697965</v>
       </c>
       <c r="N8">
-        <v>0.018408</v>
+        <v>3.539593</v>
       </c>
       <c r="O8">
-        <v>0.0003077236119062291</v>
+        <v>0.09754608390528599</v>
       </c>
       <c r="P8">
-        <v>0.0003276192068148212</v>
+        <v>0.06721628437535049</v>
       </c>
       <c r="Q8">
-        <v>0.04408028563466667</v>
+        <v>12.71400509048783</v>
       </c>
       <c r="R8">
-        <v>0.3967225707120001</v>
+        <v>76.284030542927</v>
       </c>
       <c r="S8">
-        <v>3.889498972803361E-05</v>
+        <v>0.01478504141398965</v>
       </c>
       <c r="T8">
-        <v>4.32544517393989E-05</v>
+        <v>0.01096881329798559</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,40 +980,40 @@
         <v>21.551639</v>
       </c>
       <c r="I9">
-        <v>0.1263958572665066</v>
+        <v>0.1515698101047853</v>
       </c>
       <c r="J9">
-        <v>0.1320266053993819</v>
+        <v>0.1631868437822795</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>3.632732</v>
+        <v>0.01861733333333333</v>
       </c>
       <c r="N9">
-        <v>7.265464</v>
+        <v>0.055852</v>
       </c>
       <c r="O9">
-        <v>0.1821834113636472</v>
+        <v>0.001026133772682911</v>
       </c>
       <c r="P9">
-        <v>0.1293082112571511</v>
+        <v>0.001060620222418814</v>
       </c>
       <c r="Q9">
-        <v>26.09710954924933</v>
+        <v>0.1337446823808889</v>
       </c>
       <c r="R9">
-        <v>156.582657295496</v>
+        <v>1.203702141428</v>
       </c>
       <c r="S9">
-        <v>0.02302722845904481</v>
+        <v>0.0001555309010676557</v>
       </c>
       <c r="T9">
-        <v>0.01707212418254781</v>
+        <v>0.0001730792665481855</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.229894</v>
+        <v>0.3873096666666667</v>
       </c>
       <c r="H10">
-        <v>0.6896819999999999</v>
+        <v>1.161929</v>
       </c>
       <c r="I10">
-        <v>0.004044840748830231</v>
+        <v>0.008171692087327698</v>
       </c>
       <c r="J10">
-        <v>0.004225032410066655</v>
+        <v>0.008798009571759262</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.04936133333333333</v>
+        <v>0.1030276666666667</v>
       </c>
       <c r="N10">
-        <v>0.148084</v>
+        <v>0.309083</v>
       </c>
       <c r="O10">
-        <v>0.002475496704993591</v>
+        <v>0.005678588141197309</v>
       </c>
       <c r="P10">
-        <v>0.002635547730441438</v>
+        <v>0.005869434938871914</v>
       </c>
       <c r="Q10">
-        <v>0.01134787436533333</v>
+        <v>0.03990361123411111</v>
       </c>
       <c r="R10">
-        <v>0.102130869288</v>
+        <v>0.359132501107</v>
       </c>
       <c r="S10">
-        <v>1.001298994595304E-05</v>
+        <v>4.640367378061496E-05</v>
       </c>
       <c r="T10">
-        <v>1.113527457939269E-05</v>
+        <v>5.163934477301334E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.229894</v>
+        <v>0.3873096666666667</v>
       </c>
       <c r="H11">
-        <v>0.6896819999999999</v>
+        <v>1.161929</v>
       </c>
       <c r="I11">
-        <v>0.004044840748830231</v>
+        <v>0.008171692087327698</v>
       </c>
       <c r="J11">
-        <v>0.004225032410066655</v>
+        <v>0.008798009571759262</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,25 +1119,25 @@
         <v>16.251742</v>
       </c>
       <c r="N11">
-        <v>48.755226</v>
+        <v>48.75522599999999</v>
       </c>
       <c r="O11">
-        <v>0.8150333683194528</v>
+        <v>0.8957491941808339</v>
       </c>
       <c r="P11">
-        <v>0.8677286218055926</v>
+        <v>0.9258536604633588</v>
       </c>
       <c r="Q11">
-        <v>3.736177975347999</v>
+        <v>6.294456776772665</v>
       </c>
       <c r="R11">
-        <v>33.62560177813199</v>
+        <v>56.65011099095399</v>
       </c>
       <c r="S11">
-        <v>0.003296680179834881</v>
+        <v>0.007319786602317682</v>
       </c>
       <c r="T11">
-        <v>0.0036661815502711</v>
+        <v>0.008145669366804982</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.229894</v>
+        <v>0.3873096666666667</v>
       </c>
       <c r="H12">
-        <v>0.6896819999999999</v>
+        <v>1.161929</v>
       </c>
       <c r="I12">
-        <v>0.004044840748830231</v>
+        <v>0.008171692087327698</v>
       </c>
       <c r="J12">
-        <v>0.004225032410066655</v>
+        <v>0.008798009571759262</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.006136</v>
+        <v>1.7697965</v>
       </c>
       <c r="N12">
-        <v>0.018408</v>
+        <v>3.539593</v>
       </c>
       <c r="O12">
-        <v>0.0003077236119062291</v>
+        <v>0.09754608390528599</v>
       </c>
       <c r="P12">
-        <v>0.0003276192068148212</v>
+        <v>0.06721628437535049</v>
       </c>
       <c r="Q12">
-        <v>0.001410629584</v>
+        <v>0.6854592924828333</v>
       </c>
       <c r="R12">
-        <v>0.012695666256</v>
+        <v>4.112755754897</v>
       </c>
       <c r="S12">
-        <v>1.244693004815535E-06</v>
+        <v>0.0007971165619986293</v>
       </c>
       <c r="T12">
-        <v>1.38420176695295E-06</v>
+        <v>0.0005913695133124261</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,46 +1222,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.229894</v>
+        <v>0.3873096666666667</v>
       </c>
       <c r="H13">
-        <v>0.6896819999999999</v>
+        <v>1.161929</v>
       </c>
       <c r="I13">
-        <v>0.004044840748830231</v>
+        <v>0.008171692087327698</v>
       </c>
       <c r="J13">
-        <v>0.004225032410066655</v>
+        <v>0.008798009571759262</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>3.632732</v>
+        <v>0.01861733333333333</v>
       </c>
       <c r="N13">
-        <v>7.265464</v>
+        <v>0.055852</v>
       </c>
       <c r="O13">
-        <v>0.1821834113636472</v>
+        <v>0.001026133772682911</v>
       </c>
       <c r="P13">
-        <v>0.1293082112571511</v>
+        <v>0.001060620222418814</v>
       </c>
       <c r="Q13">
-        <v>0.8351432904079998</v>
+        <v>0.007210673167555555</v>
       </c>
       <c r="R13">
-        <v>5.010859742447999</v>
+        <v>0.064896058508</v>
       </c>
       <c r="S13">
-        <v>0.0007369028860445806</v>
+        <v>8.385249230772661E-06</v>
       </c>
       <c r="T13">
-        <v>0.0005463313834492095</v>
+        <v>9.331346868842159E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7.2719705</v>
+        <v>10.122265</v>
       </c>
       <c r="H14">
-        <v>14.543941</v>
+        <v>20.24453</v>
       </c>
       <c r="I14">
-        <v>0.1279457602316344</v>
+        <v>0.2135656295858028</v>
       </c>
       <c r="J14">
-        <v>0.08909703616318426</v>
+        <v>0.153289545846405</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1302,28 +1302,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.04936133333333333</v>
+        <v>0.1030276666666667</v>
       </c>
       <c r="N14">
-        <v>0.148084</v>
+        <v>0.309083</v>
       </c>
       <c r="O14">
-        <v>0.002475496704993591</v>
+        <v>0.005678588141197309</v>
       </c>
       <c r="P14">
-        <v>0.002635547730441438</v>
+        <v>0.005869434938871914</v>
       </c>
       <c r="Q14">
-        <v>0.3589541598406667</v>
+        <v>1.042873344331667</v>
       </c>
       <c r="R14">
-        <v>2.153724959044</v>
+        <v>6.257240065989999</v>
       </c>
       <c r="S14">
-        <v>0.0003167293078713109</v>
+        <v>0.001212751251533277</v>
       </c>
       <c r="T14">
-        <v>0.000234819491448939</v>
+        <v>0.0008997230161546976</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.2719705</v>
+        <v>10.122265</v>
       </c>
       <c r="H15">
-        <v>14.543941</v>
+        <v>20.24453</v>
       </c>
       <c r="I15">
-        <v>0.1279457602316344</v>
+        <v>0.2135656295858028</v>
       </c>
       <c r="J15">
-        <v>0.08909703616318426</v>
+        <v>0.153289545846405</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,25 +1367,25 @@
         <v>16.251742</v>
       </c>
       <c r="N15">
-        <v>48.755226</v>
+        <v>48.75522599999999</v>
       </c>
       <c r="O15">
-        <v>0.8150333683194528</v>
+        <v>0.8957491941808339</v>
       </c>
       <c r="P15">
-        <v>0.8677286218055926</v>
+        <v>0.9258536604633588</v>
       </c>
       <c r="Q15">
-        <v>118.182188397611</v>
+        <v>164.5044392356299</v>
       </c>
       <c r="R15">
-        <v>709.093130385666</v>
+        <v>987.0266354137798</v>
       </c>
       <c r="S15">
-        <v>0.1042800639237821</v>
+        <v>0.1913012406062053</v>
       </c>
       <c r="T15">
-        <v>0.07731204839684293</v>
+        <v>0.1419236871326599</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,7 +1399,7 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7.2719705</v>
+        <v>10.122265</v>
       </c>
       <c r="H16">
-        <v>14.543941</v>
+        <v>20.24453</v>
       </c>
       <c r="I16">
-        <v>0.1279457602316344</v>
+        <v>0.2135656295858028</v>
       </c>
       <c r="J16">
-        <v>0.08909703616318426</v>
+        <v>0.153289545846405</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.006136</v>
+        <v>1.7697965</v>
       </c>
       <c r="N16">
-        <v>0.018408</v>
+        <v>3.539593</v>
       </c>
       <c r="O16">
-        <v>0.0003077236119062291</v>
+        <v>0.09754608390528599</v>
       </c>
       <c r="P16">
-        <v>0.0003276192068148212</v>
+        <v>0.06721628437535049</v>
       </c>
       <c r="Q16">
-        <v>0.044620810988</v>
+        <v>17.9143491690725</v>
       </c>
       <c r="R16">
-        <v>0.267724865928</v>
+        <v>71.65739667628999</v>
       </c>
       <c r="S16">
-        <v>3.937193146656689E-05</v>
+        <v>0.02083249082286195</v>
       </c>
       <c r="T16">
-        <v>2.918990031733387E-05</v>
+        <v>0.01030355370538029</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1470,46 +1470,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.2719705</v>
+        <v>10.122265</v>
       </c>
       <c r="H17">
-        <v>14.543941</v>
+        <v>20.24453</v>
       </c>
       <c r="I17">
-        <v>0.1279457602316344</v>
+        <v>0.2135656295858028</v>
       </c>
       <c r="J17">
-        <v>0.08909703616318426</v>
+        <v>0.153289545846405</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>3.632732</v>
+        <v>0.01861733333333333</v>
       </c>
       <c r="N17">
-        <v>7.265464</v>
+        <v>0.055852</v>
       </c>
       <c r="O17">
-        <v>0.1821834113636472</v>
+        <v>0.001026133772682911</v>
       </c>
       <c r="P17">
-        <v>0.1293082112571511</v>
+        <v>0.001060620222418814</v>
       </c>
       <c r="Q17">
-        <v>26.417119938406</v>
+        <v>0.1884495815933333</v>
       </c>
       <c r="R17">
-        <v>105.668479753624</v>
+        <v>1.13069748956</v>
       </c>
       <c r="S17">
-        <v>0.02330959506851442</v>
+        <v>0.0002191469052022809</v>
       </c>
       <c r="T17">
-        <v>0.01152097837457506</v>
+        <v>0.000162581992210093</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.6310036666666666</v>
+        <v>0.2830933333333334</v>
       </c>
       <c r="H18">
-        <v>1.893011</v>
+        <v>0.84928</v>
       </c>
       <c r="I18">
-        <v>0.01110211377241086</v>
+        <v>0.005972873261555284</v>
       </c>
       <c r="J18">
-        <v>0.011596696488545</v>
+        <v>0.006430662776386256</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1550,28 +1550,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>0.04936133333333333</v>
+        <v>0.1030276666666667</v>
       </c>
       <c r="N18">
-        <v>0.148084</v>
+        <v>0.309083</v>
       </c>
       <c r="O18">
-        <v>0.002475496704993591</v>
+        <v>0.005678588141197309</v>
       </c>
       <c r="P18">
-        <v>0.002635547730441438</v>
+        <v>0.005869434938871914</v>
       </c>
       <c r="Q18">
-        <v>0.03114718232488889</v>
+        <v>0.02916644558222223</v>
       </c>
       <c r="R18">
-        <v>0.280324640924</v>
+        <v>0.26249801024</v>
       </c>
       <c r="S18">
-        <v>2.748324606206704E-05</v>
+        <v>3.391748727194233E-05</v>
       </c>
       <c r="T18">
-        <v>3.056364711100295E-05</v>
+        <v>3.774435677982456E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.6310036666666666</v>
+        <v>0.2830933333333334</v>
       </c>
       <c r="H19">
-        <v>1.893011</v>
+        <v>0.84928</v>
       </c>
       <c r="I19">
-        <v>0.01110211377241086</v>
+        <v>0.005972873261555284</v>
       </c>
       <c r="J19">
-        <v>0.011596696488545</v>
+        <v>0.006430662776386256</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,25 +1615,25 @@
         <v>16.251742</v>
       </c>
       <c r="N19">
-        <v>48.755226</v>
+        <v>48.75522599999999</v>
       </c>
       <c r="O19">
-        <v>0.8150333683194528</v>
+        <v>0.8957491941808339</v>
       </c>
       <c r="P19">
-        <v>0.8677286218055926</v>
+        <v>0.9258536604633588</v>
       </c>
       <c r="Q19">
-        <v>10.25490879172067</v>
+        <v>4.600759815253332</v>
       </c>
       <c r="R19">
-        <v>92.294179125486</v>
+        <v>41.40683833727999</v>
       </c>
       <c r="S19">
-        <v>0.009048593183393809</v>
+        <v>0.005350196410982395</v>
       </c>
       <c r="T19">
-        <v>0.0100627854615029</v>
+        <v>0.00595385267072268</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1647,7 +1647,7 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1656,46 +1656,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.6310036666666666</v>
+        <v>0.2830933333333334</v>
       </c>
       <c r="H20">
-        <v>1.893011</v>
+        <v>0.84928</v>
       </c>
       <c r="I20">
-        <v>0.01110211377241086</v>
+        <v>0.005972873261555284</v>
       </c>
       <c r="J20">
-        <v>0.011596696488545</v>
+        <v>0.006430662776386256</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.006136</v>
+        <v>1.7697965</v>
       </c>
       <c r="N20">
-        <v>0.018408</v>
+        <v>3.539593</v>
       </c>
       <c r="O20">
-        <v>0.0003077236119062291</v>
+        <v>0.09754608390528599</v>
       </c>
       <c r="P20">
-        <v>0.0003276192068148212</v>
+        <v>0.06721628437535049</v>
       </c>
       <c r="Q20">
-        <v>0.003871838498666666</v>
+        <v>0.5010175905066667</v>
       </c>
       <c r="R20">
-        <v>0.034846546488</v>
+        <v>3.00610554304</v>
       </c>
       <c r="S20">
-        <v>3.416382549840159E-06</v>
+        <v>0.0005826303963273109</v>
       </c>
       <c r="T20">
-        <v>3.799300505249334E-06</v>
+        <v>0.0004322452578995595</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1709,7 +1709,7 @@
         <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.6310036666666666</v>
+        <v>0.2830933333333334</v>
       </c>
       <c r="H21">
-        <v>1.893011</v>
+        <v>0.84928</v>
       </c>
       <c r="I21">
-        <v>0.01110211377241086</v>
+        <v>0.005972873261555284</v>
       </c>
       <c r="J21">
-        <v>0.011596696488545</v>
+        <v>0.006430662776386256</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>3.632732</v>
+        <v>0.01861733333333333</v>
       </c>
       <c r="N21">
-        <v>7.265464</v>
+        <v>0.055852</v>
       </c>
       <c r="O21">
-        <v>0.1821834113636472</v>
+        <v>0.001026133772682911</v>
       </c>
       <c r="P21">
-        <v>0.1293082112571511</v>
+        <v>0.001060620222418814</v>
       </c>
       <c r="Q21">
-        <v>2.292267212017333</v>
+        <v>0.005270442951111112</v>
       </c>
       <c r="R21">
-        <v>13.753603272104</v>
+        <v>0.04743398656</v>
       </c>
       <c r="S21">
-        <v>0.00202262096040514</v>
+        <v>6.128966973636605E-06</v>
       </c>
       <c r="T21">
-        <v>0.001499548079425839</v>
+        <v>6.820490984191176E-06</v>
       </c>
     </row>
   </sheetData>
